--- a/docs/shr-core-HumanName.xlsx
+++ b/docs/shr-core-HumanName.xlsx
@@ -528,44 +528,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.7890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.60546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="55.671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="57.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="24.1875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="36.2421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="24.18359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="54.29296875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="29.5703125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.1796875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="54.6015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.27734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/shr-core-HumanName.xlsx
+++ b/docs/shr-core-HumanName.xlsx
@@ -149,7 +149,7 @@
     <t>shr-core-HumanName</t>
   </si>
   <si>
-    <t>The person name, constrained to map correctly to FHIR.</t>
+    <t>A name used by a human being, written as it would be typically expressed. May include a breakdown of the various elements of the name (family name, given name, etc.).</t>
   </si>
   <si>
     <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts may or may not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
